--- a/output/piaseczno/2019/sheets/year_2019.xlsx
+++ b/output/piaseczno/2019/sheets/year_2019.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>39.80322580645161</v>
+        <v>44.54164923551913</v>
       </c>
       <c r="C2" t="n">
-        <v>41.12903225806453</v>
+        <v>42.39923419897791</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>40.70357142857142</v>
+        <v>42.52068884107723</v>
       </c>
       <c r="C3" t="n">
-        <v>41.08928571428572</v>
+        <v>42.29370978362668</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>40.80322580645161</v>
+        <v>42.82760477896095</v>
       </c>
       <c r="C4" t="n">
-        <v>42.56129032258065</v>
+        <v>43.26269530229677</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.36</v>
+        <v>42.63624046199183</v>
       </c>
       <c r="C5" t="n">
-        <v>43.31666666666667</v>
+        <v>44.11361726563592</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>45.3</v>
+        <v>47.30166979141727</v>
       </c>
       <c r="C6" t="n">
-        <v>45.03225806451613</v>
+        <v>47.33655994012621</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>44.56333333333334</v>
+        <v>46.04684810445738</v>
       </c>
       <c r="C7" t="n">
-        <v>44.15666666666667</v>
+        <v>44.90992741200903</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.7483870967742</v>
+        <v>42.60453529986545</v>
       </c>
       <c r="C8" t="n">
-        <v>43.80322580645161</v>
+        <v>44.29087541235512</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.04838709677419</v>
+        <v>45.57673856672115</v>
       </c>
       <c r="C9" t="n">
-        <v>44.32580645161291</v>
+        <v>45.08461673166516</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.84666666666667</v>
+        <v>46.01032291515502</v>
       </c>
       <c r="C10" t="n">
-        <v>43.33666666666667</v>
+        <v>44.68485378560211</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39.92903225806452</v>
+        <v>42.17077675800155</v>
       </c>
       <c r="C11" t="n">
-        <v>42.96129032258064</v>
+        <v>44.06088755507697</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.05333333333333</v>
+        <v>45.16207791053123</v>
       </c>
       <c r="C12" t="n">
-        <v>43.78</v>
+        <v>44.20328749513651</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>39.73548387096775</v>
+        <v>43.86500439771172</v>
       </c>
       <c r="C13" t="n">
-        <v>39.18064516129033</v>
+        <v>43.02631426813272</v>
       </c>
     </row>
   </sheetData>
